--- a/meta/en/1-3-1.xlsx
+++ b/meta/en/1-3-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>(0312) 32 46 52</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The indicator reflects the proportion of persons effectively covered by a social protection system, including social protection floors. The number of social benefits recipients is the number of persons at the end (beginning) of the reporting year that have been assigned monthly amount under law of the Kyrgyz Republic on «State benefits in the Kyrgyz Republic». Effective coverage of social protection is measured by the number of personal accounts of recipients registered with the social protection agencies.</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
 ILO Social Protection Floors Recommendation (n°202), 2012:
 http://www.ilo.org/dyn/normlex/en/f?p=NORMLEXPUB:12100:0::NO::P12100_INSTRUMENT_ID,
 P12100_LANG_CODE:3065524,en</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
